--- a/keys/Enicospilus_matrix_from_ZooKeys990.xlsx
+++ b/keys/Enicospilus_matrix_from_ZooKeys990.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GOLANG\morpho-key\Update.08.20\AM\morpho-key\keys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{BA0A55A7-2D61-453F-9262-DCDD16374F0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{01259FEF-EB36-4CEA-8AAE-8E88B17BC0A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="303">
   <si>
     <t>Enicospilus abdominalis</t>
   </si>
@@ -1163,6 +1163,22 @@
   </si>
   <si>
     <t>High</t>
+  </si>
+  <si>
+    <t>#HelpText</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>#HelpImages</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>imgA1.jpg, imgA2.jpg</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Test figure and text</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -1570,13 +1586,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CF65"/>
+  <dimension ref="A1:CH65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E50" sqref="E50"/>
+      <selection pane="bottomRight" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1585,7 +1601,7 @@
     <col min="3" max="4" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:84" ht="124.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:86" ht="124.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>289</v>
       </c>
@@ -1601,86 +1617,90 @@
       <c r="E1" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AF1" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AG1" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="AF1" s="7"/>
-      <c r="AG1" s="7"/>
       <c r="AH1" s="7"/>
       <c r="AI1" s="7"/>
       <c r="AJ1" s="7"/>
@@ -1732,8 +1752,10 @@
       <c r="CD1" s="7"/>
       <c r="CE1" s="7"/>
       <c r="CF1" s="7"/>
-    </row>
-    <row r="2" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="CG1" s="7"/>
+      <c r="CH1" s="7"/>
+    </row>
+    <row r="2" spans="1:86" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>76</v>
       </c>
@@ -1749,20 +1771,20 @@
       <c r="E2" t="s">
         <v>297</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>77</v>
       </c>
-      <c r="T2">
+      <c r="V2">
         <v>54</v>
       </c>
-      <c r="V2" t="s">
+      <c r="X2" t="s">
         <v>223</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Z2" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="3" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:86" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>76</v>
       </c>
@@ -1778,20 +1800,20 @@
       <c r="E3" t="s">
         <v>297</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>79</v>
       </c>
-      <c r="T3">
+      <c r="V3">
         <v>1.9</v>
       </c>
-      <c r="V3" t="s">
+      <c r="X3" t="s">
         <v>142</v>
       </c>
-      <c r="X3">
+      <c r="Z3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:86" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>76</v>
       </c>
@@ -1807,20 +1829,20 @@
       <c r="E4" t="s">
         <v>297</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
         <v>80</v>
       </c>
-      <c r="T4">
+      <c r="V4">
         <v>1.7</v>
-      </c>
-      <c r="V4" t="s">
-        <v>142</v>
       </c>
       <c r="X4" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="5" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="Z4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:86" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -1836,20 +1858,22 @@
       <c r="E5" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="H5" t="s">
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="J5" t="s">
         <v>50</v>
       </c>
-      <c r="T5">
+      <c r="V5">
         <v>23</v>
       </c>
-      <c r="V5" t="s">
+      <c r="X5" t="s">
         <v>216</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Z5" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="6" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:86" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>56</v>
       </c>
@@ -1865,20 +1889,22 @@
       <c r="E6" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="H6" t="s">
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="J6" t="s">
         <v>57</v>
       </c>
-      <c r="T6">
+      <c r="V6">
         <v>1.4</v>
       </c>
-      <c r="V6" t="s">
+      <c r="X6" t="s">
         <v>57</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Z6" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="7" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:86" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>61</v>
       </c>
@@ -1894,20 +1920,22 @@
       <c r="E7" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="H7" t="s">
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="J7" t="s">
         <v>60</v>
       </c>
-      <c r="T7" t="s">
+      <c r="V7" t="s">
         <v>194</v>
       </c>
-      <c r="V7" t="s">
+      <c r="X7" t="s">
         <v>60</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Z7" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="8" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:86" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>61</v>
       </c>
@@ -1923,20 +1951,26 @@
       <c r="E8" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="H8" t="s">
+      <c r="F8" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="J8" t="s">
         <v>59</v>
       </c>
-      <c r="T8" t="s">
+      <c r="V8" t="s">
         <v>59</v>
       </c>
-      <c r="V8" t="s">
+      <c r="X8" t="s">
         <v>219</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Z8" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="9" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:86" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>157</v>
       </c>
@@ -1952,16 +1986,13 @@
       <c r="E9" t="s">
         <v>294</v>
       </c>
-      <c r="F9" t="s">
-        <v>179</v>
-      </c>
       <c r="H9" t="s">
         <v>179</v>
       </c>
-      <c r="N9" t="s">
+      <c r="J9" t="s">
         <v>179</v>
       </c>
-      <c r="T9" t="s">
+      <c r="P9" t="s">
         <v>179</v>
       </c>
       <c r="V9" t="s">
@@ -1970,17 +2001,20 @@
       <c r="X9" t="s">
         <v>179</v>
       </c>
-      <c r="AB9" t="s">
-        <v>127</v>
-      </c>
-      <c r="AC9" t="s">
+      <c r="Z9" t="s">
         <v>179</v>
       </c>
       <c r="AD9" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="10" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="AE9" t="s">
+        <v>179</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:86" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>157</v>
       </c>
@@ -1996,20 +2030,20 @@
       <c r="E10" t="s">
         <v>297</v>
       </c>
-      <c r="H10" t="s">
+      <c r="J10" t="s">
         <v>159</v>
       </c>
-      <c r="T10" t="s">
+      <c r="V10" t="s">
         <v>212</v>
       </c>
-      <c r="V10" t="s">
+      <c r="X10" t="s">
         <v>240</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Z10" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="11" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:86" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>157</v>
       </c>
@@ -2025,14 +2059,11 @@
       <c r="E11" t="s">
         <v>297</v>
       </c>
-      <c r="J11" t="s">
+      <c r="L11" t="s">
         <v>127</v>
       </c>
-      <c r="S11" t="s">
+      <c r="U11" t="s">
         <v>127</v>
-      </c>
-      <c r="T11" t="s">
-        <v>179</v>
       </c>
       <c r="V11" t="s">
         <v>179</v>
@@ -2040,8 +2071,11 @@
       <c r="X11" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="12" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="Z11" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="12" spans="1:86" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -2057,83 +2091,83 @@
       <c r="E12" t="s">
         <v>297</v>
       </c>
-      <c r="F12" t="s">
+      <c r="H12" t="s">
         <v>48</v>
       </c>
-      <c r="G12" t="s">
+      <c r="I12" t="s">
         <v>47</v>
       </c>
-      <c r="H12" t="s">
+      <c r="J12" t="s">
         <v>46</v>
       </c>
-      <c r="I12" t="s">
+      <c r="K12" t="s">
         <v>161</v>
       </c>
-      <c r="J12" t="s">
+      <c r="L12" t="s">
         <v>164</v>
-      </c>
-      <c r="K12" t="s">
-        <v>48</v>
-      </c>
-      <c r="L12" t="s">
-        <v>48</v>
       </c>
       <c r="M12" t="s">
         <v>48</v>
       </c>
       <c r="N12" t="s">
+        <v>48</v>
+      </c>
+      <c r="O12" t="s">
+        <v>48</v>
+      </c>
+      <c r="P12" t="s">
         <v>176</v>
       </c>
-      <c r="O12" t="s">
+      <c r="Q12" t="s">
         <v>46</v>
       </c>
-      <c r="P12" t="s">
+      <c r="R12" t="s">
         <v>48</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="S12" t="s">
         <v>48</v>
       </c>
-      <c r="R12" t="s">
+      <c r="T12" t="s">
         <v>188</v>
       </c>
-      <c r="S12" t="s">
+      <c r="U12" t="s">
         <v>188</v>
       </c>
-      <c r="T12" t="s">
+      <c r="V12" t="s">
         <v>193</v>
       </c>
-      <c r="U12" t="s">
+      <c r="W12" t="s">
         <v>214</v>
-      </c>
-      <c r="V12" t="s">
-        <v>188</v>
-      </c>
-      <c r="W12" t="s">
-        <v>46</v>
       </c>
       <c r="X12" t="s">
         <v>188</v>
       </c>
       <c r="Y12" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>188</v>
+      </c>
+      <c r="AA12" t="s">
         <v>274</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="AB12" t="s">
         <v>46</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AC12" t="s">
         <v>280</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AD12" t="s">
         <v>193</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AE12" t="s">
         <v>193</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AF12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:86" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -2143,11 +2177,9 @@
       <c r="C13" t="s">
         <v>31</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="J13" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
@@ -2157,26 +2189,28 @@
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
-      <c r="T13" s="2">
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2">
         <v>16</v>
-      </c>
-      <c r="U13" s="2"/>
-      <c r="V13" s="2" t="s">
-        <v>230</v>
       </c>
       <c r="W13" s="2"/>
       <c r="X13" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="Y13" s="2"/>
-      <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
-      <c r="AB13" s="2" t="s">
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="2"/>
+      <c r="AD13" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="AC13" s="2"/>
-    </row>
-    <row r="14" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="AE13" s="2"/>
+    </row>
+    <row r="14" spans="1:86" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -2186,11 +2220,9 @@
       <c r="C14" t="s">
         <v>31</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="J14" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -2200,24 +2232,26 @@
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
-      <c r="T14" s="2">
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2">
         <v>0.7</v>
-      </c>
-      <c r="U14" s="2"/>
-      <c r="V14" s="2" t="s">
-        <v>231</v>
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="Y14" s="2"/>
-      <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
       <c r="AB14" s="2"/>
       <c r="AC14" s="2"/>
-    </row>
-    <row r="15" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="AD14" s="2"/>
+      <c r="AE14" s="2"/>
+    </row>
+    <row r="15" spans="1:86" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -2227,43 +2261,43 @@
       <c r="C15" t="s">
         <v>31</v>
       </c>
-      <c r="H15" s="2">
+      <c r="J15" s="2">
         <v>0.4</v>
       </c>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
-      <c r="N15" s="2" t="s">
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
-      <c r="T15" s="2">
-        <v>0.3</v>
-      </c>
+      <c r="T15" s="2"/>
       <c r="U15" s="2"/>
       <c r="V15" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2">
         <v>0.2</v>
       </c>
-      <c r="W15" s="2"/>
-      <c r="X15" s="2" t="s">
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="Y15" s="2"/>
-      <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
       <c r="AB15" s="2"/>
       <c r="AC15" s="2"/>
-      <c r="AD15" t="s">
+      <c r="AD15" s="2"/>
+      <c r="AE15" s="2"/>
+      <c r="AF15" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="16" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:86" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -2273,11 +2307,9 @@
       <c r="C16" t="s">
         <v>31</v>
       </c>
-      <c r="H16" s="2">
+      <c r="J16" s="2">
         <v>0.3</v>
       </c>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
@@ -2287,24 +2319,26 @@
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
-      <c r="T16" s="2">
-        <v>0.3</v>
-      </c>
+      <c r="T16" s="2"/>
       <c r="U16" s="2"/>
       <c r="V16" s="2">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2">
         <v>0.3</v>
       </c>
-      <c r="Y16" s="2"/>
-      <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
       <c r="AC16" s="2"/>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AD16" s="2"/>
+      <c r="AE16" s="2"/>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -2314,11 +2348,9 @@
       <c r="C17" t="s">
         <v>31</v>
       </c>
-      <c r="H17" s="2">
+      <c r="J17" s="2">
         <v>0.5</v>
       </c>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
@@ -2328,27 +2360,29 @@
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
-      <c r="T17" s="2">
-        <v>0.4</v>
-      </c>
+      <c r="T17" s="2"/>
       <c r="U17" s="2"/>
       <c r="V17" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2">
         <v>0.6</v>
       </c>
-      <c r="W17" s="2"/>
-      <c r="X17" s="2" t="s">
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="Y17" s="2"/>
-      <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
       <c r="AB17" s="2"/>
       <c r="AC17" s="2"/>
-      <c r="AD17" t="s">
+      <c r="AD17" s="2"/>
+      <c r="AE17" s="2"/>
+      <c r="AF17" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -2358,11 +2392,9 @@
       <c r="C18" t="s">
         <v>31</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="J18" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
@@ -2372,9 +2404,7 @@
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
-      <c r="T18" s="2">
-        <v>0.1</v>
-      </c>
+      <c r="T18" s="2"/>
       <c r="U18" s="2"/>
       <c r="V18" s="2">
         <v>0.1</v>
@@ -2384,12 +2414,16 @@
         <v>0.1</v>
       </c>
       <c r="Y18" s="2"/>
-      <c r="Z18" s="2"/>
+      <c r="Z18" s="2">
+        <v>0.1</v>
+      </c>
       <c r="AA18" s="2"/>
       <c r="AB18" s="2"/>
       <c r="AC18" s="2"/>
-    </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AD18" s="2"/>
+      <c r="AE18" s="2"/>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -2399,11 +2433,9 @@
       <c r="C19" t="s">
         <v>31</v>
       </c>
-      <c r="H19" s="2">
+      <c r="J19" s="2">
         <v>0.3</v>
       </c>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
@@ -2413,24 +2445,26 @@
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
-      <c r="T19" s="2">
-        <v>0.3</v>
-      </c>
+      <c r="T19" s="2"/>
       <c r="U19" s="2"/>
       <c r="V19" s="2">
         <v>0.3</v>
       </c>
       <c r="W19" s="2"/>
       <c r="X19" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2">
         <v>0.2</v>
       </c>
-      <c r="Y19" s="2"/>
-      <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
       <c r="AC19" s="2"/>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AD19" s="2"/>
+      <c r="AE19" s="2"/>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -2440,26 +2474,26 @@
       <c r="C20" t="s">
         <v>31</v>
       </c>
-      <c r="F20" t="s">
-        <v>32</v>
-      </c>
       <c r="H20" t="s">
         <v>32</v>
       </c>
-      <c r="T20">
+      <c r="J20" t="s">
+        <v>32</v>
+      </c>
+      <c r="V20">
         <v>1.1000000000000001</v>
       </c>
-      <c r="V20">
+      <c r="X20">
         <v>1.2</v>
       </c>
-      <c r="X20" t="s">
+      <c r="Z20" t="s">
         <v>153</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AF20" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -2469,26 +2503,26 @@
       <c r="C21" t="s">
         <v>26</v>
       </c>
-      <c r="H21" t="s">
+      <c r="J21" t="s">
         <v>112</v>
       </c>
-      <c r="N21" t="s">
+      <c r="P21" t="s">
         <v>177</v>
       </c>
-      <c r="T21" t="s">
+      <c r="V21" t="s">
         <v>204</v>
       </c>
-      <c r="V21" t="s">
+      <c r="X21" t="s">
         <v>112</v>
       </c>
-      <c r="W21" t="s">
+      <c r="Y21" t="s">
         <v>243</v>
       </c>
-      <c r="X21" t="s">
+      <c r="Z21" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -2498,20 +2532,20 @@
       <c r="C22" t="s">
         <v>26</v>
       </c>
-      <c r="H22" t="s">
+      <c r="J22" t="s">
         <v>114</v>
       </c>
-      <c r="T22" t="s">
+      <c r="V22" t="s">
         <v>205</v>
       </c>
-      <c r="V22" t="s">
+      <c r="X22" t="s">
         <v>114</v>
       </c>
-      <c r="X22" t="s">
+      <c r="Z22" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -2521,17 +2555,14 @@
       <c r="C23" t="s">
         <v>26</v>
       </c>
-      <c r="H23" t="s">
+      <c r="J23" t="s">
         <v>117</v>
       </c>
-      <c r="L23" t="s">
+      <c r="N23" t="s">
         <v>171</v>
       </c>
-      <c r="M23" t="s">
+      <c r="O23" t="s">
         <v>173</v>
-      </c>
-      <c r="R23" t="s">
-        <v>117</v>
       </c>
       <c r="T23" t="s">
         <v>117</v>
@@ -2540,13 +2571,16 @@
         <v>117</v>
       </c>
       <c r="X23" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z23" t="s">
         <v>260</v>
       </c>
-      <c r="AD23" t="s">
+      <c r="AF23" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -2556,32 +2590,32 @@
       <c r="C24" t="s">
         <v>26</v>
       </c>
-      <c r="H24" t="s">
-        <v>75</v>
-      </c>
       <c r="J24" t="s">
         <v>75</v>
       </c>
-      <c r="M24" t="s">
+      <c r="L24" t="s">
+        <v>75</v>
+      </c>
+      <c r="O24" t="s">
         <v>173</v>
       </c>
-      <c r="Q24" t="s">
+      <c r="S24" t="s">
         <v>277</v>
       </c>
-      <c r="T24" t="s">
+      <c r="V24" t="s">
         <v>206</v>
-      </c>
-      <c r="X24" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>277</v>
       </c>
       <c r="Z24" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AA24" t="s">
+        <v>277</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -2591,14 +2625,11 @@
       <c r="C25" t="s">
         <v>26</v>
       </c>
-      <c r="H25" t="s">
+      <c r="J25" t="s">
         <v>121</v>
       </c>
-      <c r="M25" t="s">
+      <c r="O25" t="s">
         <v>173</v>
-      </c>
-      <c r="T25" t="s">
-        <v>121</v>
       </c>
       <c r="V25" t="s">
         <v>121</v>
@@ -2606,8 +2637,11 @@
       <c r="X25" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="Z25" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -2617,38 +2651,38 @@
       <c r="C26" t="s">
         <v>26</v>
       </c>
-      <c r="G26" t="s">
+      <c r="I26" t="s">
         <v>43</v>
       </c>
-      <c r="M26" t="s">
+      <c r="O26" t="s">
         <v>173</v>
       </c>
-      <c r="P26" t="s">
+      <c r="R26" t="s">
         <v>184</v>
       </c>
-      <c r="R26" t="s">
+      <c r="T26" t="s">
         <v>173</v>
       </c>
-      <c r="T26" t="s">
+      <c r="V26" t="s">
         <v>208</v>
       </c>
-      <c r="U26" t="s">
+      <c r="W26" t="s">
         <v>121</v>
       </c>
-      <c r="V26" t="s">
+      <c r="X26" t="s">
         <v>121</v>
       </c>
-      <c r="X26" t="s">
+      <c r="Z26" t="s">
         <v>261</v>
       </c>
-      <c r="Y26" t="s">
+      <c r="AA26" t="s">
         <v>121</v>
       </c>
-      <c r="AD26" t="s">
+      <c r="AF26" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -2658,23 +2692,23 @@
       <c r="C27" t="s">
         <v>26</v>
       </c>
-      <c r="H27" t="s">
+      <c r="J27" t="s">
         <v>127</v>
       </c>
-      <c r="M27" t="s">
+      <c r="O27" t="s">
         <v>173</v>
-      </c>
-      <c r="T27" t="s">
-        <v>209</v>
       </c>
       <c r="V27" t="s">
         <v>209</v>
       </c>
       <c r="X27" t="s">
+        <v>209</v>
+      </c>
+      <c r="Z27" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -2684,35 +2718,35 @@
       <c r="C28" t="s">
         <v>26</v>
       </c>
-      <c r="H28" t="s">
+      <c r="J28" t="s">
         <v>123</v>
       </c>
-      <c r="K28" t="s">
+      <c r="M28" t="s">
         <v>169</v>
       </c>
-      <c r="M28" t="s">
+      <c r="O28" t="s">
         <v>173</v>
       </c>
-      <c r="R28" t="s">
+      <c r="T28" t="s">
         <v>173</v>
-      </c>
-      <c r="T28" t="s">
-        <v>123</v>
       </c>
       <c r="V28" t="s">
         <v>123</v>
       </c>
       <c r="X28" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z28" t="s">
         <v>262</v>
       </c>
-      <c r="Y28" t="s">
+      <c r="AA28" t="s">
         <v>275</v>
       </c>
-      <c r="AB28" t="s">
+      <c r="AD28" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -2722,26 +2756,26 @@
       <c r="C29" t="s">
         <v>26</v>
       </c>
-      <c r="H29" t="s">
+      <c r="J29" t="s">
         <v>124</v>
       </c>
-      <c r="M29" t="s">
+      <c r="O29" t="s">
         <v>173</v>
       </c>
-      <c r="R29" t="s">
+      <c r="T29" t="s">
         <v>173</v>
       </c>
-      <c r="T29" t="s">
+      <c r="V29" t="s">
         <v>207</v>
       </c>
-      <c r="V29" t="s">
+      <c r="X29" t="s">
         <v>233</v>
       </c>
-      <c r="X29" t="s">
+      <c r="Z29" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -2751,20 +2785,20 @@
       <c r="C30" t="s">
         <v>26</v>
       </c>
-      <c r="H30" t="s">
+      <c r="J30" t="s">
         <v>116</v>
       </c>
-      <c r="T30" t="s">
+      <c r="V30" t="s">
         <v>116</v>
-      </c>
-      <c r="V30" t="s">
-        <v>232</v>
       </c>
       <c r="X30" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="Z30" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -2774,14 +2808,11 @@
       <c r="C31" t="s">
         <v>26</v>
       </c>
-      <c r="H31" t="s">
+      <c r="J31" t="s">
         <v>129</v>
       </c>
-      <c r="K31" t="s">
+      <c r="M31" t="s">
         <v>166</v>
-      </c>
-      <c r="T31" t="s">
-        <v>129</v>
       </c>
       <c r="V31" t="s">
         <v>129</v>
@@ -2789,11 +2820,14 @@
       <c r="X31" t="s">
         <v>129</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="Z31" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AA31" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>29</v>
       </c>
@@ -2803,20 +2837,20 @@
       <c r="C32" t="s">
         <v>31</v>
       </c>
-      <c r="H32" t="s">
+      <c r="J32" t="s">
         <v>131</v>
       </c>
-      <c r="T32">
+      <c r="V32">
         <v>100</v>
       </c>
-      <c r="V32">
+      <c r="X32">
         <v>85</v>
       </c>
-      <c r="X32" t="s">
+      <c r="Z32" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>29</v>
       </c>
@@ -2826,20 +2860,20 @@
       <c r="C33" t="s">
         <v>31</v>
       </c>
-      <c r="H33" t="s">
+      <c r="J33" t="s">
         <v>66</v>
       </c>
-      <c r="T33">
+      <c r="V33">
         <v>70</v>
       </c>
-      <c r="V33">
+      <c r="X33">
         <v>90</v>
       </c>
-      <c r="X33" t="s">
+      <c r="Z33" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>29</v>
       </c>
@@ -2849,20 +2883,20 @@
       <c r="C34" t="s">
         <v>26</v>
       </c>
-      <c r="H34" t="s">
+      <c r="J34" t="s">
         <v>134</v>
       </c>
-      <c r="T34" t="s">
+      <c r="V34" t="s">
         <v>210</v>
       </c>
-      <c r="V34" t="s">
+      <c r="X34" t="s">
         <v>234</v>
       </c>
-      <c r="X34" t="s">
+      <c r="Z34" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>53</v>
       </c>
@@ -2872,20 +2906,20 @@
       <c r="C35" t="s">
         <v>31</v>
       </c>
-      <c r="H35" t="s">
+      <c r="J35" t="s">
         <v>51</v>
       </c>
-      <c r="T35">
+      <c r="V35">
         <v>2.5</v>
       </c>
-      <c r="V35" t="s">
+      <c r="X35" t="s">
         <v>217</v>
       </c>
-      <c r="X35" t="s">
+      <c r="Z35" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>140</v>
       </c>
@@ -2895,20 +2929,20 @@
       <c r="C36" t="s">
         <v>31</v>
       </c>
-      <c r="H36" t="s">
+      <c r="J36" t="s">
         <v>142</v>
       </c>
-      <c r="T36">
+      <c r="V36">
         <v>1.8</v>
       </c>
-      <c r="V36" t="s">
+      <c r="X36" t="s">
         <v>237</v>
       </c>
-      <c r="X36" t="s">
+      <c r="Z36" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>140</v>
       </c>
@@ -2918,20 +2952,20 @@
       <c r="C37" t="s">
         <v>31</v>
       </c>
-      <c r="H37" t="s">
+      <c r="J37" t="s">
         <v>144</v>
       </c>
-      <c r="T37">
+      <c r="V37">
         <v>1.9</v>
       </c>
-      <c r="V37">
+      <c r="X37">
         <v>2</v>
       </c>
-      <c r="X37" t="s">
+      <c r="Z37" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>140</v>
       </c>
@@ -2941,20 +2975,20 @@
       <c r="C38" t="s">
         <v>31</v>
       </c>
-      <c r="H38" t="s">
+      <c r="J38" t="s">
         <v>146</v>
       </c>
-      <c r="T38">
+      <c r="V38">
         <v>3.1</v>
       </c>
-      <c r="V38" t="s">
+      <c r="X38" t="s">
         <v>238</v>
       </c>
-      <c r="X38" t="s">
+      <c r="Z38" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>140</v>
       </c>
@@ -2964,23 +2998,23 @@
       <c r="C39" t="s">
         <v>26</v>
       </c>
-      <c r="H39" t="s">
-        <v>148</v>
-      </c>
-      <c r="T39" t="s">
+      <c r="J39" t="s">
         <v>148</v>
       </c>
       <c r="V39" t="s">
         <v>148</v>
       </c>
-      <c r="W39" t="s">
-        <v>242</v>
-      </c>
       <c r="X39" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="Y39" t="s">
+        <v>242</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="40" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>135</v>
       </c>
@@ -2990,20 +3024,20 @@
       <c r="C40" t="s">
         <v>31</v>
       </c>
-      <c r="H40" t="s">
+      <c r="J40" t="s">
         <v>136</v>
       </c>
-      <c r="T40">
+      <c r="V40">
         <v>2.2999999999999998</v>
       </c>
-      <c r="V40" t="s">
+      <c r="X40" t="s">
         <v>235</v>
       </c>
-      <c r="X40" t="s">
+      <c r="Z40" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>135</v>
       </c>
@@ -3013,11 +3047,9 @@
       <c r="C41" t="s">
         <v>31</v>
       </c>
-      <c r="H41" s="5" t="s">
+      <c r="J41" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
       <c r="M41" s="5"/>
@@ -3027,24 +3059,26 @@
       <c r="Q41" s="5"/>
       <c r="R41" s="5"/>
       <c r="S41" s="5"/>
-      <c r="T41" s="5" t="s">
-        <v>211</v>
-      </c>
+      <c r="T41" s="5"/>
       <c r="U41" s="5"/>
       <c r="V41" s="5" t="s">
-        <v>236</v>
+        <v>211</v>
       </c>
       <c r="W41" s="5"/>
       <c r="X41" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="Y41" s="5"/>
+      <c r="Z41" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="Y41" s="5"/>
-      <c r="Z41" s="5"/>
       <c r="AA41" s="5"/>
       <c r="AB41" s="5"/>
       <c r="AC41" s="5"/>
-    </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AD41" s="5"/>
+      <c r="AE41" s="5"/>
+    </row>
+    <row r="42" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>54</v>
       </c>
@@ -3054,23 +3088,23 @@
       <c r="C42" t="s">
         <v>31</v>
       </c>
-      <c r="H42">
+      <c r="J42">
         <v>0.7</v>
       </c>
-      <c r="I42">
+      <c r="K42">
         <v>1.2</v>
       </c>
-      <c r="T42">
+      <c r="V42">
         <v>0.7</v>
       </c>
-      <c r="V42" t="s">
+      <c r="X42" t="s">
         <v>218</v>
       </c>
-      <c r="X42">
+      <c r="Z42">
         <v>0.7</v>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>64</v>
       </c>
@@ -3080,20 +3114,20 @@
       <c r="C43" t="s">
         <v>31</v>
       </c>
-      <c r="H43" t="s">
+      <c r="J43" t="s">
         <v>63</v>
       </c>
-      <c r="T43">
+      <c r="V43">
         <v>0.2</v>
       </c>
-      <c r="V43">
+      <c r="X43">
         <v>0.3</v>
       </c>
-      <c r="X43">
+      <c r="Z43">
         <v>0.2</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>39</v>
       </c>
@@ -3109,12 +3143,6 @@
       <c r="E44" t="s">
         <v>294</v>
       </c>
-      <c r="F44" t="s">
-        <v>37</v>
-      </c>
-      <c r="G44" t="s">
-        <v>41</v>
-      </c>
       <c r="H44" t="s">
         <v>37</v>
       </c>
@@ -3122,13 +3150,13 @@
         <v>41</v>
       </c>
       <c r="J44" t="s">
+        <v>37</v>
+      </c>
+      <c r="K44" t="s">
         <v>41</v>
       </c>
-      <c r="K44" t="s">
-        <v>37</v>
-      </c>
       <c r="L44" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M44" t="s">
         <v>37</v>
@@ -3136,17 +3164,17 @@
       <c r="N44" t="s">
         <v>37</v>
       </c>
+      <c r="O44" t="s">
+        <v>37</v>
+      </c>
       <c r="P44" t="s">
         <v>37</v>
       </c>
-      <c r="Q44" t="s">
-        <v>37</v>
-      </c>
       <c r="R44" t="s">
         <v>37</v>
       </c>
       <c r="S44" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="T44" t="s">
         <v>37</v>
@@ -3155,25 +3183,25 @@
         <v>41</v>
       </c>
       <c r="V44" t="s">
+        <v>37</v>
+      </c>
+      <c r="W44" t="s">
         <v>41</v>
       </c>
-      <c r="W44" t="s">
+      <c r="X44" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y44" t="s">
         <v>37</v>
       </c>
-      <c r="X44" t="s">
+      <c r="Z44" t="s">
         <v>37</v>
       </c>
-      <c r="Y44" t="s">
+      <c r="AA44" t="s">
         <v>41</v>
       </c>
-      <c r="Z44" t="s">
+      <c r="AB44" t="s">
         <v>41</v>
-      </c>
-      <c r="AA44" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB44" t="s">
-        <v>37</v>
       </c>
       <c r="AC44" t="s">
         <v>37</v>
@@ -3181,8 +3209,14 @@
       <c r="AD44" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE44" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF44" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>39</v>
       </c>
@@ -3198,23 +3232,23 @@
       <c r="E45" t="s">
         <v>298</v>
       </c>
-      <c r="H45" t="s">
+      <c r="J45" t="s">
         <v>66</v>
       </c>
-      <c r="P45" t="s">
+      <c r="R45" t="s">
         <v>185</v>
       </c>
-      <c r="T45">
+      <c r="V45">
         <v>30</v>
       </c>
-      <c r="V45" t="s">
+      <c r="X45" t="s">
         <v>220</v>
       </c>
-      <c r="X45" t="s">
+      <c r="Z45" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>39</v>
       </c>
@@ -3230,14 +3264,11 @@
       <c r="E46" t="s">
         <v>297</v>
       </c>
-      <c r="H46" t="s">
+      <c r="J46" t="s">
         <v>68</v>
       </c>
-      <c r="T46" t="s">
+      <c r="V46" t="s">
         <v>195</v>
-      </c>
-      <c r="V46" t="s">
-        <v>68</v>
       </c>
       <c r="X46" t="s">
         <v>68</v>
@@ -3245,8 +3276,11 @@
       <c r="Z46" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AB46" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>39</v>
       </c>
@@ -3262,11 +3296,9 @@
       <c r="E47" t="s">
         <v>297</v>
       </c>
-      <c r="H47" s="2">
+      <c r="J47" s="2">
         <v>1</v>
       </c>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
@@ -3276,24 +3308,26 @@
       <c r="Q47" s="2"/>
       <c r="R47" s="2"/>
       <c r="S47" s="2"/>
-      <c r="T47" s="2">
+      <c r="T47" s="2"/>
+      <c r="U47" s="2"/>
+      <c r="V47" s="2">
         <v>1.4</v>
-      </c>
-      <c r="U47" s="2"/>
-      <c r="V47" s="2" t="s">
-        <v>221</v>
       </c>
       <c r="W47" s="2"/>
       <c r="X47" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y47" s="2"/>
+      <c r="Z47" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Y47" s="2"/>
-      <c r="Z47" s="2"/>
       <c r="AA47" s="2"/>
       <c r="AB47" s="2"/>
       <c r="AC47" s="2"/>
-    </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AD47" s="2"/>
+      <c r="AE47" s="2"/>
+    </row>
+    <row r="48" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>90</v>
       </c>
@@ -3309,50 +3343,50 @@
       <c r="E48" t="s">
         <v>297</v>
       </c>
-      <c r="H48" s="2" t="s">
+      <c r="J48" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="I48" s="2" t="s">
+      <c r="K48" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
       <c r="L48" s="2"/>
-      <c r="M48" s="2" t="s">
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
       <c r="P48" s="2"/>
       <c r="Q48" s="2"/>
-      <c r="R48" s="2" t="s">
-        <v>189</v>
-      </c>
+      <c r="R48" s="2"/>
       <c r="S48" s="2"/>
       <c r="T48" s="2" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="U48" s="2"/>
       <c r="V48" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="W48" s="2"/>
+      <c r="X48" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="W48" s="2" t="s">
+      <c r="Y48" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="X48" s="2" t="s">
+      <c r="Z48" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="Y48" s="2" t="s">
+      <c r="AA48" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="Z48" s="2"/>
-      <c r="AA48" s="2"/>
-      <c r="AB48" s="2" t="s">
+      <c r="AB48" s="2"/>
+      <c r="AC48" s="2"/>
+      <c r="AD48" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="AC48" s="2"/>
-    </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="AE48" s="2"/>
+    </row>
+    <row r="49" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>90</v>
       </c>
@@ -3368,50 +3402,50 @@
       <c r="E49" t="s">
         <v>297</v>
       </c>
-      <c r="H49" s="2" t="s">
+      <c r="J49" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="I49" s="2" t="s">
+      <c r="K49" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="J49" s="2"/>
-      <c r="K49" s="2"/>
       <c r="L49" s="2"/>
-      <c r="M49" s="2" t="s">
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
       <c r="P49" s="2"/>
       <c r="Q49" s="2"/>
-      <c r="R49" s="2" t="s">
-        <v>189</v>
-      </c>
+      <c r="R49" s="2"/>
       <c r="S49" s="2"/>
       <c r="T49" s="2" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="U49" s="2"/>
       <c r="V49" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="W49" s="2"/>
+      <c r="X49" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="W49" s="2" t="s">
+      <c r="Y49" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="X49" s="2" t="s">
+      <c r="Z49" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="Y49" s="2" t="s">
+      <c r="AA49" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="Z49" s="2"/>
-      <c r="AA49" s="2"/>
-      <c r="AB49" s="2" t="s">
+      <c r="AB49" s="2"/>
+      <c r="AC49" s="2"/>
+      <c r="AD49" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="AC49" s="2"/>
-    </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="AE49" s="2"/>
+    </row>
+    <row r="50" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>83</v>
       </c>
@@ -3427,11 +3461,9 @@
       <c r="E50" t="s">
         <v>294</v>
       </c>
-      <c r="H50" s="2" t="s">
+      <c r="J50" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
       <c r="M50" s="2"/>
@@ -3441,24 +3473,26 @@
       <c r="Q50" s="2"/>
       <c r="R50" s="2"/>
       <c r="S50" s="2"/>
-      <c r="T50" s="2">
-        <v>1.4</v>
-      </c>
+      <c r="T50" s="2"/>
       <c r="U50" s="2"/>
       <c r="V50" s="2">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="W50" s="2"/>
       <c r="X50" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="Y50" s="2"/>
+      <c r="Z50" s="2">
         <v>1.4</v>
       </c>
-      <c r="Y50" s="2"/>
-      <c r="Z50" s="2"/>
       <c r="AA50" s="2"/>
       <c r="AB50" s="2"/>
       <c r="AC50" s="2"/>
-    </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="AD50" s="2"/>
+      <c r="AE50" s="2"/>
+    </row>
+    <row r="51" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>94</v>
       </c>
@@ -3474,50 +3508,50 @@
       <c r="E51" t="s">
         <v>297</v>
       </c>
-      <c r="H51" s="2" t="s">
+      <c r="J51" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
-      <c r="M51" s="2" t="s">
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
       <c r="P51" s="2"/>
       <c r="Q51" s="2"/>
       <c r="R51" s="2"/>
-      <c r="S51" s="2" t="s">
+      <c r="S51" s="2"/>
+      <c r="T51" s="2"/>
+      <c r="U51" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="T51" s="2" t="s">
+      <c r="V51" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="U51" s="2"/>
-      <c r="V51" s="2" t="s">
+      <c r="W51" s="2"/>
+      <c r="X51" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="W51" s="2" t="s">
+      <c r="Y51" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="X51" s="2" t="s">
+      <c r="Z51" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="Y51" s="2" t="s">
+      <c r="AA51" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="Z51" s="2"/>
-      <c r="AA51" s="2"/>
-      <c r="AB51" s="2" t="s">
+      <c r="AB51" s="2"/>
+      <c r="AC51" s="2"/>
+      <c r="AD51" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="AC51" s="2" t="s">
+      <c r="AE51" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>152</v>
       </c>
@@ -3533,20 +3567,20 @@
       <c r="E52" t="s">
         <v>297</v>
       </c>
-      <c r="H52" t="s">
+      <c r="J52" t="s">
         <v>153</v>
-      </c>
-      <c r="T52">
-        <v>1.4</v>
       </c>
       <c r="V52">
         <v>1.4</v>
       </c>
-      <c r="X52" t="s">
+      <c r="X52">
+        <v>1.4</v>
+      </c>
+      <c r="Z52" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>152</v>
       </c>
@@ -3562,20 +3596,20 @@
       <c r="E53" t="s">
         <v>297</v>
       </c>
-      <c r="H53" t="s">
+      <c r="J53" t="s">
         <v>146</v>
       </c>
-      <c r="T53">
+      <c r="V53">
         <v>3.2</v>
       </c>
-      <c r="V53" t="s">
+      <c r="X53" t="s">
         <v>239</v>
       </c>
-      <c r="X53" t="s">
+      <c r="Z53" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>152</v>
       </c>
@@ -3591,20 +3625,20 @@
       <c r="E54" t="s">
         <v>297</v>
       </c>
-      <c r="H54" t="s">
+      <c r="J54" t="s">
         <v>154</v>
-      </c>
-      <c r="T54">
-        <v>3.5</v>
       </c>
       <c r="V54">
         <v>3.5</v>
       </c>
-      <c r="X54" t="s">
+      <c r="X54">
+        <v>3.5</v>
+      </c>
+      <c r="Z54" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>152</v>
       </c>
@@ -3620,23 +3654,23 @@
       <c r="E55" t="s">
         <v>294</v>
       </c>
-      <c r="H55" t="s">
-        <v>156</v>
-      </c>
-      <c r="T55" t="s">
+      <c r="J55" t="s">
         <v>156</v>
       </c>
       <c r="V55" t="s">
         <v>156</v>
       </c>
-      <c r="W55" t="s">
-        <v>156</v>
-      </c>
       <c r="X55" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="Y55" t="s">
+        <v>156</v>
+      </c>
+      <c r="Z55" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="56" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>73</v>
       </c>
@@ -3652,20 +3686,20 @@
       <c r="E56" t="s">
         <v>297</v>
       </c>
-      <c r="H56" t="s">
+      <c r="J56" t="s">
         <v>75</v>
       </c>
-      <c r="T56" t="s">
+      <c r="V56" t="s">
         <v>75</v>
-      </c>
-      <c r="V56" t="s">
-        <v>222</v>
       </c>
       <c r="X56" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="Z56" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="57" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>70</v>
       </c>
@@ -3681,20 +3715,20 @@
       <c r="E57" t="s">
         <v>297</v>
       </c>
-      <c r="H57" t="s">
+      <c r="J57" t="s">
         <v>72</v>
-      </c>
-      <c r="T57" t="s">
-        <v>196</v>
       </c>
       <c r="V57" t="s">
         <v>196</v>
       </c>
       <c r="X57" t="s">
+        <v>196</v>
+      </c>
+      <c r="Z57" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>35</v>
       </c>
@@ -3710,10 +3744,7 @@
       <c r="E58" t="s">
         <v>297</v>
       </c>
-      <c r="F58" t="s">
-        <v>37</v>
-      </c>
-      <c r="T58" t="s">
+      <c r="H58" t="s">
         <v>37</v>
       </c>
       <c r="V58" t="s">
@@ -3722,8 +3753,11 @@
       <c r="X58" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="Z58" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="59" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>35</v>
       </c>
@@ -3739,20 +3773,20 @@
       <c r="E59" t="s">
         <v>297</v>
       </c>
-      <c r="H59" t="s">
+      <c r="J59" t="s">
         <v>96</v>
       </c>
-      <c r="T59" t="s">
+      <c r="V59" t="s">
         <v>200</v>
-      </c>
-      <c r="V59" t="s">
-        <v>96</v>
       </c>
       <c r="X59" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="Z59" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="60" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
         <v>35</v>
       </c>
@@ -3768,20 +3802,20 @@
       <c r="E60" t="s">
         <v>297</v>
       </c>
-      <c r="H60" t="s">
+      <c r="J60" t="s">
         <v>228</v>
       </c>
-      <c r="T60" t="s">
+      <c r="V60" t="s">
         <v>202</v>
       </c>
-      <c r="V60" t="s">
+      <c r="X60" t="s">
         <v>228</v>
       </c>
-      <c r="X60" t="s">
+      <c r="Z60" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
         <v>35</v>
       </c>
@@ -3797,23 +3831,23 @@
       <c r="E61" t="s">
         <v>297</v>
       </c>
-      <c r="H61" t="s">
+      <c r="J61" t="s">
         <v>98</v>
       </c>
-      <c r="T61" t="s">
+      <c r="V61" t="s">
         <v>203</v>
       </c>
-      <c r="V61" t="s">
+      <c r="X61" t="s">
         <v>229</v>
       </c>
-      <c r="X61" t="s">
+      <c r="Z61" t="s">
         <v>95</v>
       </c>
-      <c r="AC61" s="2" t="s">
+      <c r="AE61" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
         <v>35</v>
       </c>
@@ -3829,20 +3863,20 @@
       <c r="E62" t="s">
         <v>294</v>
       </c>
-      <c r="H62" t="s">
+      <c r="J62" t="s">
         <v>100</v>
       </c>
-      <c r="T62" t="s">
+      <c r="V62" t="s">
         <v>75</v>
       </c>
-      <c r="V62" t="s">
+      <c r="X62" t="s">
         <v>100</v>
       </c>
-      <c r="X62" t="s">
+      <c r="Z62" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>86</v>
       </c>
@@ -3858,11 +3892,9 @@
       <c r="E63" t="s">
         <v>297</v>
       </c>
-      <c r="H63" s="2" t="s">
+      <c r="J63" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="I63" s="2"/>
-      <c r="J63" s="2"/>
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
       <c r="M63" s="2"/>
@@ -3872,26 +3904,28 @@
       <c r="Q63" s="2"/>
       <c r="R63" s="2"/>
       <c r="S63" s="2"/>
-      <c r="T63" s="2" t="s">
-        <v>189</v>
-      </c>
+      <c r="T63" s="2"/>
       <c r="U63" s="2"/>
       <c r="V63" s="2" t="s">
-        <v>224</v>
+        <v>189</v>
       </c>
       <c r="W63" s="2"/>
       <c r="X63" s="2" t="s">
         <v>224</v>
       </c>
       <c r="Y63" s="2"/>
-      <c r="Z63" s="2"/>
+      <c r="Z63" s="2" t="s">
+        <v>224</v>
+      </c>
       <c r="AA63" s="2"/>
-      <c r="AB63" s="2" t="s">
+      <c r="AB63" s="2"/>
+      <c r="AC63" s="2"/>
+      <c r="AD63" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="AC63" s="2"/>
-    </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="AE63" s="2"/>
+    </row>
+    <row r="64" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
         <v>86</v>
       </c>
@@ -3907,11 +3941,9 @@
       <c r="E64" t="s">
         <v>297</v>
       </c>
-      <c r="H64" s="2">
+      <c r="J64" s="2">
         <v>1</v>
       </c>
-      <c r="I64" s="2"/>
-      <c r="J64" s="2"/>
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
       <c r="M64" s="2"/>
@@ -3921,24 +3953,26 @@
       <c r="Q64" s="2"/>
       <c r="R64" s="2"/>
       <c r="S64" s="2"/>
-      <c r="T64" s="2">
+      <c r="T64" s="2"/>
+      <c r="U64" s="2"/>
+      <c r="V64" s="2">
         <v>0.2</v>
-      </c>
-      <c r="U64" s="2"/>
-      <c r="V64" s="2" t="s">
-        <v>225</v>
       </c>
       <c r="W64" s="2"/>
       <c r="X64" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="Y64" s="2"/>
+      <c r="Z64" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="Y64" s="2"/>
-      <c r="Z64" s="2"/>
       <c r="AA64" s="2"/>
       <c r="AB64" s="2"/>
       <c r="AC64" s="2"/>
-    </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="AD64" s="2"/>
+      <c r="AE64" s="2"/>
+    </row>
+    <row r="65" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
         <v>86</v>
       </c>
@@ -3954,18 +3988,16 @@
       <c r="E65" t="s">
         <v>297</v>
       </c>
-      <c r="H65" s="2"/>
-      <c r="I65" s="2"/>
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
-      <c r="O65" s="2" t="s">
+      <c r="O65" s="2"/>
+      <c r="P65" s="2"/>
+      <c r="Q65" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="P65" s="2"/>
-      <c r="Q65" s="2"/>
       <c r="R65" s="2"/>
       <c r="S65" s="2"/>
       <c r="T65" s="2"/>
@@ -3978,18 +4010,20 @@
       <c r="AA65" s="2"/>
       <c r="AB65" s="2"/>
       <c r="AC65" s="2"/>
+      <c r="AD65" s="2"/>
+      <c r="AE65" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AD72">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AF72">
     <sortCondition ref="A2:A72"/>
   </sortState>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="F1:XFD1048576 A1:D1048576">
+  <conditionalFormatting sqref="H1:XFD1048576 A1:D1048576">
     <cfRule type="containsBlanks" dxfId="1" priority="4">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E1048576">
+  <conditionalFormatting sqref="E1:G1048576">
     <cfRule type="containsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(E1))=0</formula>
     </cfRule>
